--- a/data/HR1_2/Market Data/HR1_market_data_base.xlsx
+++ b/data/HR1_2/Market Data/HR1_market_data_base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB39A691-F771-4723-9B0D-11E4B2568D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF57824-3E40-43E2-9FAA-95A09B3699CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26295" yWindow="270" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="5" r:id="rId1"/>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B42D3D-D37A-4056-8A81-15E52DBED91C}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="4">
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -488,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D68773-C08B-4409-9DD6-C9F8E319B25A}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>

--- a/data/HR1_2/Market Data/HR1_market_data_base.xlsx
+++ b/data/HR1_2/Market Data/HR1_market_data_base.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF57824-3E40-43E2-9FAA-95A09B3699CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579C4283-754B-4204-9AB6-0BA9490463B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{D5815E3E-A825-47B7-91B5-1362E9B2D293}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="5" r:id="rId1"/>
     <sheet name="Market Costs, Summer" sheetId="3" r:id="rId2"/>
     <sheet name="Market Costs, Winter" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -428,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,7 +439,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
